--- a/Original Excel Files/LC.xlsx
+++ b/Original Excel Files/LC.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F7AC2-8042-43B3-BD82-3362318D5953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28860" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="319">
   <si>
     <t>LC37 .H66 1981</t>
   </si>
@@ -979,7 +980,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1054,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,6 +1082,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,6 +1100,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1138,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,9 +1184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,6 +1236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1381,178 +1428,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:I135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A9:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:G135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1971</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
+      <c r="A14" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
+      <c r="C14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13">
+        <v>1984</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A16" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1572,7 +1691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1592,7 +1711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1612,895 +1731,1092 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>269</v>
+      <c r="H24" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G27" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="G30" s="17">
+        <v>1995</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="13">
-        <v>1995</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1971</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>306</v>
-      </c>
-      <c r="B33" t="s">
-        <v>307</v>
-      </c>
-      <c r="C33" t="s">
-        <v>308</v>
-      </c>
-      <c r="D33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" t="s">
-        <v>311</v>
+      <c r="A33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1971</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="G34" s="13">
+        <v>2001</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>72</v>
+      <c r="A35" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="C35" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>76</v>
+      <c r="G35" s="13">
+        <v>1994</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="3" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="13">
-        <v>2001</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="G37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>280</v>
+      <c r="A39" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1994</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="C39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="A43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="3"/>
+      <c r="A44" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>95</v>
+      <c r="A46" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>103</v>
+      <c r="A47" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="2"/>
+      <c r="A48" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="12"/>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>113</v>
+      <c r="A51" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" t="s">
-        <v>314</v>
-      </c>
-      <c r="H52" s="6"/>
+      <c r="A52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>117</v>
+      <c r="A53" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>121</v>
+      <c r="C53" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13">
+        <v>1976</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H54" s="6"/>
+      <c r="A54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>127</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
       <c r="G56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="7" t="s">
+      <c r="G57" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58" t="s">
-        <v>128</v>
+      <c r="A58" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" t="s">
-        <v>128</v>
+      <c r="A59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>131</v>
+      <c r="A60" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="3" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>131</v>
+      <c r="A61" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1976</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" s="17">
+        <v>1951</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64" s="17">
+        <v>1992</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>132</v>
+      <c r="A65" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="3" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G66" s="3" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>145</v>
+      <c r="A67" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="16">
+        <v>1991</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>149</v>
+      <c r="A68" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
+      <c r="A69" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" s="13">
-        <v>1951</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="G70" s="13">
+        <v>1973</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="G71" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>153</v>
+      <c r="A73" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>156</v>
+      <c r="C73" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="13">
+        <v>1992</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>157</v>
+      <c r="A74" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="3" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H75" s="7">
-        <v>1991</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>166</v>
+      <c r="A75" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" t="s">
-        <v>163</v>
-      </c>
-      <c r="F76" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" t="s">
-        <v>165</v>
+      <c r="A76" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="9" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="13">
+      <c r="F78" s="14"/>
+      <c r="G78" s="13">
         <v>2004</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="H78" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>172</v>
       </c>
@@ -2516,13 +2832,12 @@
       <c r="E80" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2541,13 +2856,12 @@
       <c r="E81" t="s">
         <v>176</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>160</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>177</v>
       </c>
-      <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -2569,582 +2883,462 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B83" t="s">
+        <v>316</v>
+      </c>
+      <c r="G83" t="s">
+        <v>317</v>
+      </c>
+      <c r="H83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H89" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>263</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D95" s="13">
-        <v>1971</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>265</v>
-      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A96" s="1"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H97" s="3"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A100" s="3"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D101" s="13">
-        <v>1984</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>268</v>
-      </c>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" t="s">
-        <v>210</v>
-      </c>
-      <c r="E103" t="s">
-        <v>211</v>
-      </c>
-      <c r="F103" t="s">
-        <v>212</v>
-      </c>
-      <c r="G103" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-    </row>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>300</v>
-      </c>
-      <c r="B106" t="s">
-        <v>301</v>
-      </c>
-      <c r="C106" t="s">
-        <v>302</v>
-      </c>
-      <c r="F106" t="s">
-        <v>184</v>
-      </c>
-      <c r="G106" t="s">
-        <v>303</v>
-      </c>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>300</v>
-      </c>
-      <c r="B107" t="s">
-        <v>301</v>
-      </c>
-      <c r="C107" t="s">
-        <v>304</v>
-      </c>
-      <c r="F107" t="s">
-        <v>305</v>
-      </c>
-      <c r="G107" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
     <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="A116" s="3"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D118" s="13">
-        <v>1992</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F122" s="2"/>
-      <c r="G122" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D123" s="13">
-        <v>1973</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D128" s="13">
-        <v>1992</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>296</v>
-      </c>
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>315</v>
-      </c>
-      <c r="B135" t="s">
-        <v>316</v>
-      </c>
-      <c r="F135" t="s">
-        <v>317</v>
-      </c>
-      <c r="G135" t="s">
-        <v>318</v>
-      </c>
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I135">
+    <sortCondition ref="A1:A135"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3156,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
